--- a/Second part/covidsim-0.xlsx
+++ b/Second part/covidsim-0.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3826923.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>0.02577319587628866</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>3826923.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0.04822504417620028</v>
       </c>
       <c r="G4">
-        <v>1.649997796187605</v>
+        <v>3826924.79999966</v>
       </c>
       <c r="H4">
         <v>0.08762886597938145</v>
@@ -534,7 +534,7 @@
         <v>0.2520617159319096</v>
       </c>
       <c r="G5">
-        <v>5.724991838703359</v>
+        <v>3826930.649988085</v>
       </c>
       <c r="H5">
         <v>0.163965150199081</v>
@@ -563,7 +563,7 @@
         <v>0.4296265867453104</v>
       </c>
       <c r="G6">
-        <v>14.9405901330279</v>
+        <v>3826940.931487912</v>
       </c>
       <c r="H6">
         <v>0.8570098341684927</v>
@@ -592,7 +592,7 @@
         <v>2.041726417640705</v>
       </c>
       <c r="G7">
-        <v>47.28939331935139</v>
+        <v>3826987.197606373</v>
       </c>
       <c r="H7">
         <v>1.460730394934055</v>
@@ -621,7 +621,7 @@
         <v>3.445815734975511</v>
       </c>
       <c r="G8">
-        <v>120.2853922764829</v>
+        <v>3827068.51054715</v>
       </c>
       <c r="H8">
         <v>6.941869819978396</v>
@@ -650,7 +650,7 @@
         <v>16.19453309236551</v>
       </c>
       <c r="G9">
-        <v>376.2250483473821</v>
+        <v>3827434.379312142</v>
       </c>
       <c r="H9">
         <v>11.71577349891674</v>
@@ -679,7 +679,7 @@
         <v>27.2837393735666</v>
       </c>
       <c r="G10">
-        <v>953.063259348777</v>
+        <v>3828077.338603561</v>
       </c>
       <c r="H10">
         <v>55.06141251404272</v>
@@ -708,7 +708,7 @@
         <v>128.0381215190486</v>
       </c>
       <c r="G11">
-        <v>2975.907621405126</v>
+        <v>3830968.188724113</v>
       </c>
       <c r="H11">
         <v>92.76471387012643</v>
@@ -737,7 +737,7 @@
         <v>214.774450028256</v>
       </c>
       <c r="G12">
-        <v>7500.970464260348</v>
+        <v>3836044.867192783</v>
       </c>
       <c r="H12">
         <v>435.3296131647651</v>
@@ -766,7 +766,7 @@
         <v>1007.051444792462</v>
       </c>
       <c r="G13">
-        <v>23408.08028775642</v>
+        <v>3858736.719646992</v>
       </c>
       <c r="H13">
         <v>730.2331300960705</v>
@@ -795,7 +795,7 @@
         <v>1635.611776375815</v>
       </c>
       <c r="G14">
-        <v>56983.54102836444</v>
+        <v>3898366.95282541</v>
       </c>
       <c r="H14">
         <v>3423.97491229437</v>
@@ -824,7 +824,7 @@
         <v>7628.755941917827</v>
       </c>
       <c r="G15">
-        <v>177339.5672808188</v>
+        <v>4067634.552504909</v>
       </c>
       <c r="H15">
         <v>5561.080039677769</v>
@@ -853,7 +853,7 @@
         <v>10088.2916556629</v>
       </c>
       <c r="G16">
-        <v>344925.1196082573</v>
+        <v>4350914.54799143</v>
       </c>
       <c r="H16">
         <v>25937.77020252061</v>
@@ -882,7 +882,7 @@
         <v>45185.45673688423</v>
       </c>
       <c r="G17">
-        <v>1051030.851323108</v>
+        <v>5239133.963429702</v>
       </c>
       <c r="H17">
         <v>34300.19162925386</v>
@@ -911,7 +911,7 @@
         <v>34802.67369193556</v>
       </c>
       <c r="G18">
-        <v>1063767.015148566</v>
+        <v>6356158.250940693</v>
       </c>
       <c r="H18">
         <v>153630.5529054064</v>
@@ -940,7 +940,7 @@
         <v>118455.1965885825</v>
       </c>
       <c r="G19">
-        <v>2768384.030495974</v>
+        <v>7297940.637236338</v>
       </c>
       <c r="H19">
         <v>118329.0905525809</v>
@@ -969,7 +969,7 @@
         <v>130957.7751584348</v>
       </c>
       <c r="G20">
-        <v>3198980.354056866</v>
+        <v>7653845</v>
       </c>
       <c r="H20">
         <v>402747.6684011804</v>
@@ -998,7 +998,7 @@
         <v>212713.7964009046</v>
       </c>
       <c r="G21">
-        <v>5112441.604056866</v>
+        <v>7653845</v>
       </c>
       <c r="H21">
         <v>445256.4355386783</v>
@@ -1027,7 +1027,7 @@
         <v>283934.2478956333</v>
       </c>
       <c r="G22">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H22">
         <v>723226.9077630755</v>
@@ -1056,7 +1056,7 @@
         <v>345976.8061565054</v>
       </c>
       <c r="G23">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H23">
         <v>965376.4428451533</v>
@@ -1085,7 +1085,7 @@
         <v>400024.1893837599</v>
       </c>
       <c r="G24">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H24">
         <v>1176321.140932118</v>
@@ -1114,7 +1114,7 @@
         <v>447106.70363843</v>
       </c>
       <c r="G25">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H25">
         <v>1360082.243904783</v>
@@ -1143,7 +1143,7 @@
         <v>488121.8835819312</v>
       </c>
       <c r="G26">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H26">
         <v>1520162.792370662</v>
@@ -1172,7 +1172,7 @@
         <v>523851.6021925071</v>
       </c>
       <c r="G27">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H27">
         <v>1659614.404178566</v>
@@ -1201,7 +1201,7 @@
         <v>554976.9756213079</v>
       </c>
       <c r="G28">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H28">
         <v>1781095.447454524</v>
@@ -1230,7 +1230,7 @@
         <v>582091.3473195928</v>
       </c>
       <c r="G29">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H29">
         <v>1886921.717112447</v>
@@ -1259,7 +1259,7 @@
         <v>605711.5989536659</v>
       </c>
       <c r="G30">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H30">
         <v>1979110.580886616</v>
@@ -1288,7 +1288,7 @@
         <v>626288.0037276781</v>
       </c>
       <c r="G31">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H31">
         <v>2059419.436442464</v>
@@ -1317,7 +1317,7 @@
         <v>644212.8099483381</v>
       </c>
       <c r="G32">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H32">
         <v>2129379.212674106</v>
@@ -1346,7 +1346,7 @@
         <v>659827.7184601502</v>
       </c>
       <c r="G33">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H33">
         <v>2190323.553824349</v>
@@ -1375,7 +1375,7 @@
         <v>673430.396493636</v>
       </c>
       <c r="G34">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H34">
         <v>2243414.242764511</v>
@@ -1404,7 +1404,7 @@
         <v>685280.1521001261</v>
       </c>
       <c r="G35">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H35">
         <v>2289663.348078362</v>
@@ -1433,7 +1433,7 @@
         <v>695602.8773449553</v>
       </c>
       <c r="G36">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H36">
         <v>2329952.517140429</v>
@@ -1462,7 +1462,7 @@
         <v>704595.3544912239</v>
       </c>
       <c r="G37">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H37">
         <v>2365049.782972848</v>
@@ -1491,7 +1491,7 @@
         <v>712429.0072629733</v>
       </c>
       <c r="G38">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H38">
         <v>2395624.205270161</v>
@@ -1520,7 +1520,7 @@
         <v>719253.1686981573</v>
       </c>
       <c r="G39">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H39">
         <v>2422258.624694109</v>
@@ -1549,7 +1549,7 @@
         <v>725197.927886539</v>
       </c>
       <c r="G40">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H40">
         <v>2445460.773573735</v>
@@ -1578,7 +1578,7 @@
         <v>730376.6098599231</v>
       </c>
       <c r="G41">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H41">
         <v>2465672.954814232</v>
@@ -1607,7 +1607,7 @@
         <v>734887.9359089022</v>
       </c>
       <c r="G42">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H42">
         <v>2483280.473523739</v>
@@ -1636,7 +1636,7 @@
         <v>738817.9055082705</v>
       </c>
       <c r="G43">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H43">
         <v>2498618.982090267</v>
@@ -1665,7 +1665,7 @@
         <v>742241.4357262768</v>
       </c>
       <c r="G44">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H44">
         <v>2511980.87872812</v>
@@ -1694,7 +1694,7 @@
         <v>745223.7893697979</v>
       </c>
       <c r="G45">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H45">
         <v>2523620.881469341</v>
@@ -1723,7 +1723,7 @@
         <v>747821.8190901848</v>
       </c>
       <c r="G46">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H46">
         <v>2533760.883857313</v>
@@ -1752,7 +1752,7 @@
         <v>750085.0511661919</v>
       </c>
       <c r="G47">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H47">
         <v>2542594.184906628</v>
@@ -1781,7 +1781,7 @@
         <v>752056.6296241569</v>
       </c>
       <c r="G48">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H48">
         <v>2550289.173965053</v>
@@ -1810,7 +1810,7 @@
         <v>753774.1386932089</v>
       </c>
       <c r="G49">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H49">
         <v>2556992.540722133</v>
@@ -1839,7 +1839,7 @@
         <v>755270.3192739809</v>
       </c>
       <c r="G50">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H50">
         <v>2562832.07155691</v>
@@ -1868,7 +1868,7 @@
         <v>756573.6930788802</v>
       </c>
       <c r="G51">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H51">
         <v>2567919.085531535</v>
@@ -1897,7 +1897,7 @@
         <v>757709.1063419111</v>
       </c>
       <c r="G52">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H52">
         <v>2572350.556468192</v>
@@ -1926,7 +1926,7 @@
         <v>758698.2034627988</v>
       </c>
       <c r="G53">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H53">
         <v>2576210.961562498</v>
@@ -1955,7 +1955,7 @@
         <v>759559.8396145001</v>
       </c>
       <c r="G54">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H54">
         <v>2579573.891773516</v>
@@ -1984,7 +1984,7 @@
         <v>760310.4401796418</v>
       </c>
       <c r="G55">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H55">
         <v>2582503.4546893</v>
@@ -2013,7 +2013,7 @@
         <v>760964.3138678323</v>
       </c>
       <c r="G56">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H56">
         <v>2585055.496610782</v>
@@ -2042,7 +2042,7 @@
         <v>761533.9254828023</v>
       </c>
       <c r="G57">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H57">
         <v>2587278.66715063</v>
@@ -2071,7 +2071,7 @@
         <v>762030.1335391422</v>
       </c>
       <c r="G58">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H58">
         <v>2589215.346641528</v>
@@ -2100,7 +2100,7 @@
         <v>762462.3972583249</v>
       </c>
       <c r="G59">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H59">
         <v>2590902.454033083</v>
@@ -2129,7 +2129,7 @@
         <v>762838.9568899841</v>
       </c>
       <c r="G60">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H60">
         <v>2592372.150678304</v>
@@ -2158,7 +2158,7 @@
         <v>763166.990795914</v>
       </c>
       <c r="G61">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H61">
         <v>2593652.453425946</v>
@@ -2187,7 +2187,7 @@
         <v>763452.7522912859</v>
       </c>
       <c r="G62">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H62">
         <v>2594767.768706108</v>
@@ -2216,7 +2216,7 @@
         <v>763701.6888516872</v>
       </c>
       <c r="G63">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H63">
         <v>2595739.357790372</v>
@@ -2245,7 +2245,7 @@
         <v>763918.5459584285</v>
       </c>
       <c r="G64">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H64">
         <v>2596585.742095737</v>
@@ -2274,7 +2274,7 @@
         <v>764107.4575617238</v>
       </c>
       <c r="G65">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H65">
         <v>2597323.056258657</v>
@@ -2303,7 +2303,7 @@
         <v>764272.024886244</v>
       </c>
       <c r="G66">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H66">
         <v>2597965.355709861</v>
@@ -2332,7 +2332,7 @@
         <v>764415.3850813156</v>
       </c>
       <c r="G67">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H67">
         <v>2598524.884613229</v>
@@ -2361,7 +2361,7 @@
         <v>764540.2710244451</v>
       </c>
       <c r="G68">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H68">
         <v>2599012.309276473</v>
@@ -2390,7 +2390,7 @@
         <v>764649.0634182021</v>
       </c>
       <c r="G69">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H69">
         <v>2599436.921483113</v>
@@ -2419,7 +2419,7 @@
         <v>764743.8361735884</v>
       </c>
       <c r="G70">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H70">
         <v>2599806.815621887</v>
@@ -2448,7 +2448,7 @@
         <v>764826.3959450332</v>
       </c>
       <c r="G71">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H71">
         <v>2600129.042990201</v>
@@ -2477,7 +2477,7 @@
         <v>764898.3165706733</v>
       </c>
       <c r="G72">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H72">
         <v>2600409.746213113</v>
@@ -2506,7 +2506,7 @@
         <v>764960.9690744525</v>
       </c>
       <c r="G73">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H73">
         <v>2600654.276340289</v>
@@ -2535,7 +2535,7 @@
         <v>765015.5478019716</v>
       </c>
       <c r="G74">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H74">
         <v>2600867.294853139</v>
@@ -2564,7 +2564,7 @@
         <v>765063.0931883154</v>
       </c>
       <c r="G75">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H75">
         <v>2601052.862526703</v>
@@ -2593,7 +2593,7 @@
         <v>765104.511591883</v>
       </c>
       <c r="G76">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H76">
         <v>2601214.516840272</v>
@@ -2622,7 +2622,7 @@
         <v>765140.5925723105</v>
       </c>
       <c r="G77">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H77">
         <v>2601355.339412402</v>
@@ -2651,7 +2651,7 @@
         <v>765172.023941858</v>
       </c>
       <c r="G78">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H78">
         <v>2601478.014745856</v>
@@ -2680,7 +2680,7 @@
         <v>765199.4048771856</v>
       </c>
       <c r="G79">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H79">
         <v>2601584.881402317</v>
@@ -2709,7 +2709,7 @@
         <v>765223.2573414658</v>
       </c>
       <c r="G80">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H80">
         <v>2601677.976582431</v>
@@ -2738,7 +2738,7 @@
         <v>765244.0360345759</v>
       </c>
       <c r="G81">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H81">
         <v>2601759.074960984</v>
@@ -2767,7 +2767,7 @@
         <v>765262.1370610481</v>
       </c>
       <c r="G82">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H82">
         <v>2601829.722517558</v>
@@ -2796,7 +2796,7 @@
         <v>765277.905481016</v>
       </c>
       <c r="G83">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H83">
         <v>2601891.266007564</v>
@@ -2825,7 +2825,7 @@
         <v>765291.6418881017</v>
       </c>
       <c r="G84">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H84">
         <v>2601944.878635454</v>
@@ -2854,7 +2854,7 @@
         <v>765303.6081396349</v>
       </c>
       <c r="G85">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H85">
         <v>2601991.582419546</v>
@@ -2883,7 +2883,7 @@
         <v>765314.0323484449</v>
       </c>
       <c r="G86">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H86">
         <v>2602032.267674759</v>
@@ -2912,7 +2912,7 @@
         <v>765323.1132313772</v>
       </c>
       <c r="G87">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H87">
         <v>2602067.709984713</v>
@@ -2941,7 +2941,7 @@
         <v>765331.0238974369</v>
       </c>
       <c r="G88">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H88">
         <v>2602098.584986683</v>
@@ -2970,7 +2970,7 @@
         <v>765337.9151477672</v>
       </c>
       <c r="G89">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H89">
         <v>2602125.481251285</v>
@@ -2999,7 +2999,7 @@
         <v>765343.9183503746</v>
       </c>
       <c r="G90">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H90">
         <v>2602148.911502408</v>
@@ -3028,7 +3028,7 @@
         <v>765349.1479443985</v>
       </c>
       <c r="G91">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H91">
         <v>2602169.322391273</v>
@@ -3057,7 +3057,7 @@
         <v>765353.7036216666</v>
       </c>
       <c r="G92">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H92">
         <v>2602187.103010955</v>
@@ -3086,7 +3086,7 @@
         <v>765357.672227122</v>
       </c>
       <c r="G93">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H93">
         <v>2602202.592313666</v>
@@ -3115,7 +3115,7 @@
         <v>765361.1294143485</v>
       </c>
       <c r="G94">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H94">
         <v>2602216.085572215</v>
@@ -3144,7 +3144,7 @@
         <v>765364.1410877572</v>
       </c>
       <c r="G95">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H95">
         <v>2602227.840008785</v>
@@ -3173,7 +3173,7 @@
         <v>765366.7646589226</v>
       </c>
       <c r="G96">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H96">
         <v>2602238.079698374</v>
@@ -3202,7 +3202,7 @@
         <v>765369.0501410201</v>
       </c>
       <c r="G97">
-        <v>5740383.749999999</v>
+        <v>7653845</v>
       </c>
       <c r="H97">
         <v>2602246.999840337</v>
@@ -3231,7 +3231,7 @@
         <v>765371.0411022289</v>
       </c>
       <c r="G98">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H98">
         <v>2602254.770479468</v>
@@ -3260,7 +3260,7 @@
         <v>765372.7754962716</v>
       </c>
       <c r="G99">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H99">
         <v>2602261.539747578</v>
@@ -3289,7 +3289,7 @@
         <v>765374.2863859272</v>
       </c>
       <c r="G100">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H100">
         <v>2602267.436687323</v>
@@ -3318,7 +3318,7 @@
         <v>765375.6025733078</v>
       </c>
       <c r="G101">
-        <v>5740383.750000001</v>
+        <v>7653845</v>
       </c>
       <c r="H101">
         <v>2602272.573712152</v>
@@ -3347,13 +3347,2913 @@
         <v>765376.7491489125</v>
       </c>
       <c r="G102">
-        <v>5740383.75</v>
+        <v>7653845</v>
       </c>
       <c r="H102">
         <v>2602277.048749247</v>
       </c>
       <c r="I102">
         <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>33.7601503555461</v>
+      </c>
+      <c r="E103">
+        <v>3061510.991879716</v>
+      </c>
+      <c r="F103">
+        <v>765377.7479699289</v>
+      </c>
+      <c r="G103">
+        <v>7653845</v>
+      </c>
+      <c r="H103">
+        <v>2602280.947106302</v>
+      </c>
+      <c r="I103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>29.40961551591387</v>
+      </c>
+      <c r="E104">
+        <v>3061514.472307588</v>
+      </c>
+      <c r="F104">
+        <v>765378.6180768969</v>
+      </c>
+      <c r="G104">
+        <v>7653845</v>
+      </c>
+      <c r="H104">
+        <v>2602284.343097758</v>
+      </c>
+      <c r="I104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>25.61971660922394</v>
+      </c>
+      <c r="E105">
+        <v>3061517.504226713</v>
+      </c>
+      <c r="F105">
+        <v>765379.3760566781</v>
+      </c>
+      <c r="G105">
+        <v>7653845</v>
+      </c>
+      <c r="H105">
+        <v>2602287.301461449</v>
+      </c>
+      <c r="I105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>22.31820673690127</v>
+      </c>
+      <c r="E106">
+        <v>3061520.14543461</v>
+      </c>
+      <c r="F106">
+        <v>765380.0363586525</v>
+      </c>
+      <c r="G106">
+        <v>7653845</v>
+      </c>
+      <c r="H106">
+        <v>2602289.878592705</v>
+      </c>
+      <c r="I106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>19.44214916771296</v>
+      </c>
+      <c r="E107">
+        <v>3061522.446280666</v>
+      </c>
+      <c r="F107">
+        <v>765380.6115701664</v>
+      </c>
+      <c r="G107">
+        <v>7653845</v>
+      </c>
+      <c r="H107">
+        <v>2602292.123619419</v>
+      </c>
+      <c r="I107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>16.93671757393552</v>
+      </c>
+      <c r="E108">
+        <v>3061524.450625941</v>
+      </c>
+      <c r="F108">
+        <v>765381.1126564852</v>
+      </c>
+      <c r="G108">
+        <v>7653845</v>
+      </c>
+      <c r="H108">
+        <v>2602294.079338566</v>
+      </c>
+      <c r="I108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>14.75415087626341</v>
+      </c>
+      <c r="E109">
+        <v>3061526.196679299</v>
+      </c>
+      <c r="F109">
+        <v>765381.5491698247</v>
+      </c>
+      <c r="G109">
+        <v>7653845</v>
+      </c>
+      <c r="H109">
+        <v>2602295.783032049</v>
+      </c>
+      <c r="I109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>12.85284277365215</v>
+      </c>
+      <c r="E110">
+        <v>3061527.717725781</v>
+      </c>
+      <c r="F110">
+        <v>765381.9294314452</v>
+      </c>
+      <c r="G110">
+        <v>7653845</v>
+      </c>
+      <c r="H110">
+        <v>2602297.267177404</v>
+      </c>
+      <c r="I110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>11.19654860178976</v>
+      </c>
+      <c r="E111">
+        <v>3061529.042761119</v>
+      </c>
+      <c r="F111">
+        <v>765382.2606902797</v>
+      </c>
+      <c r="G111">
+        <v>7653845</v>
+      </c>
+      <c r="H111">
+        <v>2602298.560066914</v>
+      </c>
+      <c r="I111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>9.753694400528195</v>
+      </c>
+      <c r="E112">
+        <v>3061530.19704448</v>
+      </c>
+      <c r="F112">
+        <v>765382.5492611199</v>
+      </c>
+      <c r="G112">
+        <v>7653845</v>
+      </c>
+      <c r="H112">
+        <v>2602299.686346951</v>
+      </c>
+      <c r="I112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>8.49677501901683</v>
+      </c>
+      <c r="E113">
+        <v>3061531.202579985</v>
+      </c>
+      <c r="F113">
+        <v>765382.8006449962</v>
+      </c>
+      <c r="G113">
+        <v>7653845</v>
+      </c>
+      <c r="H113">
+        <v>2602300.667487808</v>
+      </c>
+      <c r="I113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>7.401829784607445</v>
+      </c>
+      <c r="E114">
+        <v>3061532.078536172</v>
+      </c>
+      <c r="F114">
+        <v>765383.0196340431</v>
+      </c>
+      <c r="G114">
+        <v>7653845</v>
+      </c>
+      <c r="H114">
+        <v>2602301.522192987</v>
+      </c>
+      <c r="I114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>6.447985740199269</v>
+      </c>
+      <c r="E115">
+        <v>3061532.841611408</v>
+      </c>
+      <c r="F115">
+        <v>765383.2104028519</v>
+      </c>
+      <c r="G115">
+        <v>7653845</v>
+      </c>
+      <c r="H115">
+        <v>2602302.266755747</v>
+      </c>
+      <c r="I115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>5.617059742750909</v>
+      </c>
+      <c r="E116">
+        <v>3061533.506352206</v>
+      </c>
+      <c r="F116">
+        <v>765383.3765880514</v>
+      </c>
+      <c r="G116">
+        <v>7653845</v>
+      </c>
+      <c r="H116">
+        <v>2602302.915369696</v>
+      </c>
+      <c r="I116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>4.893211837757235</v>
+      </c>
+      <c r="E117">
+        <v>3061534.08543053</v>
+      </c>
+      <c r="F117">
+        <v>765383.5213576325</v>
+      </c>
+      <c r="G117">
+        <v>7653845</v>
+      </c>
+      <c r="H117">
+        <v>2602303.480399375</v>
+      </c>
+      <c r="I117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>4.262643301963777</v>
+      </c>
+      <c r="E118">
+        <v>3061534.589885359</v>
+      </c>
+      <c r="F118">
+        <v>765383.6474713397</v>
+      </c>
+      <c r="G118">
+        <v>7653845</v>
+      </c>
+      <c r="H118">
+        <v>2602303.97261595</v>
+      </c>
+      <c r="I118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>3.713333598102466</v>
+      </c>
+      <c r="E119">
+        <v>3061535.029333122</v>
+      </c>
+      <c r="F119">
+        <v>765383.7573332805</v>
+      </c>
+      <c r="G119">
+        <v>7653845</v>
+      </c>
+      <c r="H119">
+        <v>2602304.401402555</v>
+      </c>
+      <c r="I119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>3.234811227212972</v>
+      </c>
+      <c r="E120">
+        <v>3061535.412151018</v>
+      </c>
+      <c r="F120">
+        <v>765383.8530377545</v>
+      </c>
+      <c r="G120">
+        <v>7653845</v>
+      </c>
+      <c r="H120">
+        <v>2602304.774933154</v>
+      </c>
+      <c r="I120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>2.817954110304084</v>
+      </c>
+      <c r="E121">
+        <v>3061535.745636712</v>
+      </c>
+      <c r="F121">
+        <v>765383.936409178</v>
+      </c>
+      <c r="G121">
+        <v>7653845</v>
+      </c>
+      <c r="H121">
+        <v>2602305.100328365</v>
+      </c>
+      <c r="I121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>2.454815694027785</v>
+      </c>
+      <c r="E122">
+        <v>3061536.036147445</v>
+      </c>
+      <c r="F122">
+        <v>765384.0090368611</v>
+      </c>
+      <c r="G122">
+        <v>7653845</v>
+      </c>
+      <c r="H122">
+        <v>2602305.383791205</v>
+      </c>
+      <c r="I122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>2.138473465415957</v>
+      </c>
+      <c r="E123">
+        <v>3061536.289221228</v>
+      </c>
+      <c r="F123">
+        <v>765384.0723053069</v>
+      </c>
+      <c r="G123">
+        <v>7653845</v>
+      </c>
+      <c r="H123">
+        <v>2602305.630725328</v>
+      </c>
+      <c r="I123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1.862896987913901</v>
+      </c>
+      <c r="E124">
+        <v>3061536.509682409</v>
+      </c>
+      <c r="F124">
+        <v>765384.1274206024</v>
+      </c>
+      <c r="G124">
+        <v>7653845</v>
+      </c>
+      <c r="H124">
+        <v>2602305.845838043</v>
+      </c>
+      <c r="I124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>1.622832943079635</v>
+      </c>
+      <c r="E125">
+        <v>3061536.701733646</v>
+      </c>
+      <c r="F125">
+        <v>765384.1754334114</v>
+      </c>
+      <c r="G125">
+        <v>7653845</v>
+      </c>
+      <c r="H125">
+        <v>2602306.033230048</v>
+      </c>
+      <c r="I125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>1.413704986497208</v>
+      </c>
+      <c r="E126">
+        <v>3061536.86903601</v>
+      </c>
+      <c r="F126">
+        <v>765384.2172590026</v>
+      </c>
+      <c r="G126">
+        <v>7653845</v>
+      </c>
+      <c r="H126">
+        <v>2602306.196473598</v>
+      </c>
+      <c r="I126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>1.231526508855815</v>
+      </c>
+      <c r="E127">
+        <v>3061537.014778793</v>
+      </c>
+      <c r="F127">
+        <v>765384.2536946982</v>
+      </c>
+      <c r="G127">
+        <v>7653845</v>
+      </c>
+      <c r="H127">
+        <v>2602306.338680609</v>
+      </c>
+      <c r="I127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>1.072824639157901</v>
+      </c>
+      <c r="E128">
+        <v>3061537.141740289</v>
+      </c>
+      <c r="F128">
+        <v>765384.2854350721</v>
+      </c>
+      <c r="G128">
+        <v>7653845</v>
+      </c>
+      <c r="H128">
+        <v>2602306.462561974</v>
+      </c>
+      <c r="I128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0.9345740413282743</v>
+      </c>
+      <c r="E129">
+        <v>3061537.252340767</v>
+      </c>
+      <c r="F129">
+        <v>765384.3130851917</v>
+      </c>
+      <c r="G129">
+        <v>7653845</v>
+      </c>
+      <c r="H129">
+        <v>2602306.570479245</v>
+      </c>
+      <c r="I129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0.8141392421880328</v>
+      </c>
+      <c r="E130">
+        <v>3061537.348688606</v>
+      </c>
+      <c r="F130">
+        <v>765384.3371721515</v>
+      </c>
+      <c r="G130">
+        <v>7653845</v>
+      </c>
+      <c r="H130">
+        <v>2602306.664489652</v>
+      </c>
+      <c r="I130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0.7092243913906059</v>
+      </c>
+      <c r="E131">
+        <v>3061537.432620487</v>
+      </c>
+      <c r="F131">
+        <v>765384.3581551218</v>
+      </c>
+      <c r="G131">
+        <v>7653845</v>
+      </c>
+      <c r="H131">
+        <v>2602306.746385315</v>
+      </c>
+      <c r="I131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0.6178294955928474</v>
+      </c>
+      <c r="E132">
+        <v>3061537.505736404</v>
+      </c>
+      <c r="F132">
+        <v>765384.3764341009</v>
+      </c>
+      <c r="G132">
+        <v>7653845</v>
+      </c>
+      <c r="H132">
+        <v>2602306.817727414</v>
+      </c>
+      <c r="I132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0.538212292552532</v>
+      </c>
+      <c r="E133">
+        <v>3061537.569430166</v>
+      </c>
+      <c r="F133">
+        <v>765384.3923575415</v>
+      </c>
+      <c r="G133">
+        <v>7653845</v>
+      </c>
+      <c r="H133">
+        <v>2602306.879875943</v>
+      </c>
+      <c r="I133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0.4688550383576182</v>
+      </c>
+      <c r="E134">
+        <v>3061537.62491597</v>
+      </c>
+      <c r="F134">
+        <v>765384.4062289924</v>
+      </c>
+      <c r="G134">
+        <v>7653845</v>
+      </c>
+      <c r="H134">
+        <v>2602306.934015641</v>
+      </c>
+      <c r="I134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0.4084355746517396</v>
+      </c>
+      <c r="E135">
+        <v>3061537.67325154</v>
+      </c>
+      <c r="F135">
+        <v>765384.4183128851</v>
+      </c>
+      <c r="G135">
+        <v>7653845</v>
+      </c>
+      <c r="H135">
+        <v>2602306.981178574</v>
+      </c>
+      <c r="I135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0.3558021243100206</v>
+      </c>
+      <c r="E136">
+        <v>3061537.715358301</v>
+      </c>
+      <c r="F136">
+        <v>765384.4288395752</v>
+      </c>
+      <c r="G136">
+        <v>7653845</v>
+      </c>
+      <c r="H136">
+        <v>2602307.022263809</v>
+      </c>
+      <c r="I136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0.3099513350948117</v>
+      </c>
+      <c r="E137">
+        <v>3061537.752038932</v>
+      </c>
+      <c r="F137">
+        <v>765384.438009733</v>
+      </c>
+      <c r="G137">
+        <v>7653845</v>
+      </c>
+      <c r="H137">
+        <v>2602307.058054556</v>
+      </c>
+      <c r="I137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0.2700091527372329</v>
+      </c>
+      <c r="E138">
+        <v>3061537.783992678</v>
+      </c>
+      <c r="F138">
+        <v>765384.4459981695</v>
+      </c>
+      <c r="G138">
+        <v>7653845</v>
+      </c>
+      <c r="H138">
+        <v>2602307.089233092</v>
+      </c>
+      <c r="I138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0.2352141588277956</v>
+      </c>
+      <c r="E139">
+        <v>3061537.811828673</v>
+      </c>
+      <c r="F139">
+        <v>765384.4529571682</v>
+      </c>
+      <c r="G139">
+        <v>7653845</v>
+      </c>
+      <c r="H139">
+        <v>2602307.116393776</v>
+      </c>
+      <c r="I139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0.2049030558860694</v>
+      </c>
+      <c r="E140">
+        <v>3061537.836077555</v>
+      </c>
+      <c r="F140">
+        <v>765384.4590193888</v>
+      </c>
+      <c r="G140">
+        <v>7653845</v>
+      </c>
+      <c r="H140">
+        <v>2602307.140054372</v>
+      </c>
+      <c r="I140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0.1784980229110605</v>
+      </c>
+      <c r="E141">
+        <v>3061537.857201582</v>
+      </c>
+      <c r="F141">
+        <v>765384.4643003955</v>
+      </c>
+      <c r="G141">
+        <v>7653845</v>
+      </c>
+      <c r="H141">
+        <v>2602307.160665922</v>
+      </c>
+      <c r="I141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0.1554957003709754</v>
+      </c>
+      <c r="E142">
+        <v>3061537.87560344</v>
+      </c>
+      <c r="F142">
+        <v>765384.4689008599</v>
+      </c>
+      <c r="G142">
+        <v>7653845</v>
+      </c>
+      <c r="H142">
+        <v>2602307.178621344</v>
+      </c>
+      <c r="I142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0.1354575946530662</v>
+      </c>
+      <c r="E143">
+        <v>3061537.891633924</v>
+      </c>
+      <c r="F143">
+        <v>765384.472908481</v>
+      </c>
+      <c r="G143">
+        <v>7653845</v>
+      </c>
+      <c r="H143">
+        <v>2602307.194262924</v>
+      </c>
+      <c r="I143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0.1180017190534442</v>
+      </c>
+      <c r="E144">
+        <v>3061537.905598625</v>
+      </c>
+      <c r="F144">
+        <v>765384.4763996562</v>
+      </c>
+      <c r="G144">
+        <v>7653845</v>
+      </c>
+      <c r="H144">
+        <v>2602307.207888836</v>
+      </c>
+      <c r="I144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0.1027953119589282</v>
+      </c>
+      <c r="E145">
+        <v>3061537.91776375</v>
+      </c>
+      <c r="F145">
+        <v>765384.4794409375</v>
+      </c>
+      <c r="G145">
+        <v>7653845</v>
+      </c>
+      <c r="H145">
+        <v>2602307.219758831</v>
+      </c>
+      <c r="I145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0.08954849340751997</v>
+      </c>
+      <c r="E146">
+        <v>3061537.928361205</v>
+      </c>
+      <c r="F146">
+        <v>765384.4820903013</v>
+      </c>
+      <c r="G146">
+        <v>7653845</v>
+      </c>
+      <c r="H146">
+        <v>2602307.230099188</v>
+      </c>
+      <c r="I146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0.07800873910242717</v>
+      </c>
+      <c r="E147">
+        <v>3061537.937593008</v>
+      </c>
+      <c r="F147">
+        <v>765384.4843982521</v>
+      </c>
+      <c r="G147">
+        <v>7653845</v>
+      </c>
+      <c r="H147">
+        <v>2602307.239107024</v>
+      </c>
+      <c r="I147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0.06795606653768139</v>
+      </c>
+      <c r="E148">
+        <v>3061537.945635146</v>
+      </c>
+      <c r="F148">
+        <v>765384.4864087866</v>
+      </c>
+      <c r="G148">
+        <v>7653845</v>
+      </c>
+      <c r="H148">
+        <v>2602307.246954057</v>
+      </c>
+      <c r="I148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0.05919884146839256</v>
+      </c>
+      <c r="E149">
+        <v>3061537.952640927</v>
+      </c>
+      <c r="F149">
+        <v>765384.4881602317</v>
+      </c>
+      <c r="G149">
+        <v>7653845</v>
+      </c>
+      <c r="H149">
+        <v>2602307.253789874</v>
+      </c>
+      <c r="I149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0.05157012478432135</v>
+      </c>
+      <c r="E150">
+        <v>3061537.9587439</v>
+      </c>
+      <c r="F150">
+        <v>765384.489685975</v>
+      </c>
+      <c r="G150">
+        <v>7653845</v>
+      </c>
+      <c r="H150">
+        <v>2602307.259744788</v>
+      </c>
+      <c r="I150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0.04492449014716655</v>
+      </c>
+      <c r="E151">
+        <v>3061537.964060408</v>
+      </c>
+      <c r="F151">
+        <v>765384.491015102</v>
+      </c>
+      <c r="G151">
+        <v>7653845</v>
+      </c>
+      <c r="H151">
+        <v>2602307.264932315</v>
+      </c>
+      <c r="I151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0.03913525172613993</v>
+      </c>
+      <c r="E152">
+        <v>3061537.968691799</v>
+      </c>
+      <c r="F152">
+        <v>765384.4921729497</v>
+      </c>
+      <c r="G152">
+        <v>7653845</v>
+      </c>
+      <c r="H152">
+        <v>2602307.269451347</v>
+      </c>
+      <c r="I152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0.03409204918411159</v>
+      </c>
+      <c r="E153">
+        <v>3061537.972726361</v>
+      </c>
+      <c r="F153">
+        <v>765384.4931815902</v>
+      </c>
+      <c r="G153">
+        <v>7653845</v>
+      </c>
+      <c r="H153">
+        <v>2602307.273388029</v>
+      </c>
+      <c r="I153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0.0296987438768807</v>
+      </c>
+      <c r="E154">
+        <v>3061537.976241005</v>
+      </c>
+      <c r="F154">
+        <v>765384.4940602512</v>
+      </c>
+      <c r="G154">
+        <v>7653845</v>
+      </c>
+      <c r="H154">
+        <v>2602307.276817407</v>
+      </c>
+      <c r="I154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0.02587158616078783</v>
+      </c>
+      <c r="E155">
+        <v>3061537.979302731</v>
+      </c>
+      <c r="F155">
+        <v>765384.4948256827</v>
+      </c>
+      <c r="G155">
+        <v>7653845</v>
+      </c>
+      <c r="H155">
+        <v>2602307.279804854</v>
+      </c>
+      <c r="I155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0.02253761887202652</v>
+      </c>
+      <c r="E156">
+        <v>3061537.981969905</v>
+      </c>
+      <c r="F156">
+        <v>765384.4954924763</v>
+      </c>
+      <c r="G156">
+        <v>7653845</v>
+      </c>
+      <c r="H156">
+        <v>2602307.282407321</v>
+      </c>
+      <c r="I156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0.01963328654315712</v>
+      </c>
+      <c r="E157">
+        <v>3061537.984293371</v>
+      </c>
+      <c r="F157">
+        <v>765384.4960733426</v>
+      </c>
+      <c r="G157">
+        <v>7653845</v>
+      </c>
+      <c r="H157">
+        <v>2602307.284674419</v>
+      </c>
+      <c r="I157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0.01710322384429666</v>
+      </c>
+      <c r="E158">
+        <v>3061537.986317421</v>
+      </c>
+      <c r="F158">
+        <v>765384.4965793552</v>
+      </c>
+      <c r="G158">
+        <v>7653845</v>
+      </c>
+      <c r="H158">
+        <v>2602307.286649365</v>
+      </c>
+      <c r="I158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0.01489920015302132</v>
+      </c>
+      <c r="E159">
+        <v>3061537.98808064</v>
+      </c>
+      <c r="F159">
+        <v>765384.49702016</v>
+      </c>
+      <c r="G159">
+        <v>7653845</v>
+      </c>
+      <c r="H159">
+        <v>2602307.288369808</v>
+      </c>
+      <c r="I159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0.01297920013330208</v>
+      </c>
+      <c r="E160">
+        <v>3061537.98961664</v>
+      </c>
+      <c r="F160">
+        <v>765384.49740416</v>
+      </c>
+      <c r="G160">
+        <v>7653845</v>
+      </c>
+      <c r="H160">
+        <v>2602307.289868544</v>
+      </c>
+      <c r="I160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0.01130662279653635</v>
+      </c>
+      <c r="E161">
+        <v>3061537.990954702</v>
+      </c>
+      <c r="F161">
+        <v>765384.4977386756</v>
+      </c>
+      <c r="G161">
+        <v>7653845</v>
+      </c>
+      <c r="H161">
+        <v>2602307.291174144</v>
+      </c>
+      <c r="I161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0.009849583776364136</v>
+      </c>
+      <c r="E162">
+        <v>3061537.992120333</v>
+      </c>
+      <c r="F162">
+        <v>765384.4980300833</v>
+      </c>
+      <c r="G162">
+        <v>7653845</v>
+      </c>
+      <c r="H162">
+        <v>2602307.292311497</v>
+      </c>
+      <c r="I162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0.008580307516523399</v>
+      </c>
+      <c r="E163">
+        <v>3061537.993135754</v>
+      </c>
+      <c r="F163">
+        <v>765384.4982839385</v>
+      </c>
+      <c r="G163">
+        <v>7653845</v>
+      </c>
+      <c r="H163">
+        <v>2602307.293302283</v>
+      </c>
+      <c r="I163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0.00747459778501265</v>
+      </c>
+      <c r="E164">
+        <v>3061537.994020321</v>
+      </c>
+      <c r="F164">
+        <v>765384.4985050804</v>
+      </c>
+      <c r="G164">
+        <v>7653845</v>
+      </c>
+      <c r="H164">
+        <v>2602307.294165391</v>
+      </c>
+      <c r="I164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0.006511376420964628</v>
+      </c>
+      <c r="E165">
+        <v>3061537.994790899</v>
+      </c>
+      <c r="F165">
+        <v>765384.4986977247</v>
+      </c>
+      <c r="G165">
+        <v>7653845</v>
+      </c>
+      <c r="H165">
+        <v>2602307.294917273</v>
+      </c>
+      <c r="I165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0.005672281521355784</v>
+      </c>
+      <c r="E166">
+        <v>3061537.995462175</v>
+      </c>
+      <c r="F166">
+        <v>765384.4988655436</v>
+      </c>
+      <c r="G166">
+        <v>7653845</v>
+      </c>
+      <c r="H166">
+        <v>2602307.295572264</v>
+      </c>
+      <c r="I166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0.004941317407779008</v>
+      </c>
+      <c r="E167">
+        <v>3061537.996046946</v>
+      </c>
+      <c r="F167">
+        <v>765384.4990117366</v>
+      </c>
+      <c r="G167">
+        <v>7653845</v>
+      </c>
+      <c r="H167">
+        <v>2602307.296142848</v>
+      </c>
+      <c r="I167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0.004304549700590991</v>
+      </c>
+      <c r="E168">
+        <v>3061537.99655636</v>
+      </c>
+      <c r="F168">
+        <v>765384.4991390901</v>
+      </c>
+      <c r="G168">
+        <v>7653845</v>
+      </c>
+      <c r="H168">
+        <v>2602307.296639904</v>
+      </c>
+      <c r="I168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0.003749839687628234</v>
+      </c>
+      <c r="E169">
+        <v>3061537.997000128</v>
+      </c>
+      <c r="F169">
+        <v>765384.4992500321</v>
+      </c>
+      <c r="G169">
+        <v>7653845</v>
+      </c>
+      <c r="H169">
+        <v>2602307.297072906</v>
+      </c>
+      <c r="I169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0.003266612923758616</v>
+      </c>
+      <c r="E170">
+        <v>3061537.99738671</v>
+      </c>
+      <c r="F170">
+        <v>765384.4993466774</v>
+      </c>
+      <c r="G170">
+        <v>7653845</v>
+      </c>
+      <c r="H170">
+        <v>2602307.297450109</v>
+      </c>
+      <c r="I170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0.002845657650078381</v>
+      </c>
+      <c r="E171">
+        <v>3061537.997723474</v>
+      </c>
+      <c r="F171">
+        <v>765384.4994308685</v>
+      </c>
+      <c r="G171">
+        <v>7653845</v>
+      </c>
+      <c r="H171">
+        <v>2602307.297778703</v>
+      </c>
+      <c r="I171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0.002478949190016734</v>
+      </c>
+      <c r="E172">
+        <v>3061537.998016841</v>
+      </c>
+      <c r="F172">
+        <v>765384.4995042102</v>
+      </c>
+      <c r="G172">
+        <v>7653845</v>
+      </c>
+      <c r="H172">
+        <v>2602307.298064953</v>
+      </c>
+      <c r="I172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0.002159496974808392</v>
+      </c>
+      <c r="E173">
+        <v>3061537.998272403</v>
+      </c>
+      <c r="F173">
+        <v>765384.4995681007</v>
+      </c>
+      <c r="G173">
+        <v>7653845</v>
+      </c>
+      <c r="H173">
+        <v>2602307.298314315</v>
+      </c>
+      <c r="I173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0.001881211282178445</v>
+      </c>
+      <c r="E174">
+        <v>3061537.998495031</v>
+      </c>
+      <c r="F174">
+        <v>765384.4996237578</v>
+      </c>
+      <c r="G174">
+        <v>7653845</v>
+      </c>
+      <c r="H174">
+        <v>2602307.298531542</v>
+      </c>
+      <c r="I174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0.001638787147877099</v>
+      </c>
+      <c r="E175">
+        <v>3061537.99868897</v>
+      </c>
+      <c r="F175">
+        <v>765384.4996722426</v>
+      </c>
+      <c r="G175">
+        <v>7653845</v>
+      </c>
+      <c r="H175">
+        <v>2602307.298720777</v>
+      </c>
+      <c r="I175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0.001427603237068194</v>
+      </c>
+      <c r="E176">
+        <v>3061537.998857917</v>
+      </c>
+      <c r="F176">
+        <v>765384.4997144793</v>
+      </c>
+      <c r="G176">
+        <v>7653845</v>
+      </c>
+      <c r="H176">
+        <v>2602307.298885625</v>
+      </c>
+      <c r="I176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0.001243633747755283</v>
+      </c>
+      <c r="E177">
+        <v>3061537.999005093</v>
+      </c>
+      <c r="F177">
+        <v>765384.4997512732</v>
+      </c>
+      <c r="G177">
+        <v>7653845</v>
+      </c>
+      <c r="H177">
+        <v>2602307.29902923</v>
+      </c>
+      <c r="I177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0.001083371666858984</v>
+      </c>
+      <c r="E178">
+        <v>3061537.999133303</v>
+      </c>
+      <c r="F178">
+        <v>765384.4997833257</v>
+      </c>
+      <c r="G178">
+        <v>7653845</v>
+      </c>
+      <c r="H178">
+        <v>2602307.299154329</v>
+      </c>
+      <c r="I178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0.0009437619159750941</v>
+      </c>
+      <c r="E179">
+        <v>3061537.999244991</v>
+      </c>
+      <c r="F179">
+        <v>765384.4998112477</v>
+      </c>
+      <c r="G179">
+        <v>7653845</v>
+      </c>
+      <c r="H179">
+        <v>2602307.299263307</v>
+      </c>
+      <c r="I179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0.000822143112370056</v>
+      </c>
+      <c r="E180">
+        <v>3061537.999342286</v>
+      </c>
+      <c r="F180">
+        <v>765384.4998355714</v>
+      </c>
+      <c r="G180">
+        <v>7653845</v>
+      </c>
+      <c r="H180">
+        <v>2602307.299358242</v>
+      </c>
+      <c r="I180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0.0007161968350027807</v>
+      </c>
+      <c r="E181">
+        <v>3061537.999427042</v>
+      </c>
+      <c r="F181">
+        <v>765384.4998567606</v>
+      </c>
+      <c r="G181">
+        <v>7653845</v>
+      </c>
+      <c r="H181">
+        <v>2602307.299440943</v>
+      </c>
+      <c r="I181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0.0006239034284302574</v>
+      </c>
+      <c r="E182">
+        <v>3061537.999500877</v>
+      </c>
+      <c r="F182">
+        <v>765384.4998752193</v>
+      </c>
+      <c r="G182">
+        <v>7653845</v>
+      </c>
+      <c r="H182">
+        <v>2602307.299512986</v>
+      </c>
+      <c r="I182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0.000543503502086152</v>
+      </c>
+      <c r="E183">
+        <v>3061537.999565197</v>
+      </c>
+      <c r="F183">
+        <v>765384.4998912993</v>
+      </c>
+      <c r="G183">
+        <v>7653845</v>
+      </c>
+      <c r="H183">
+        <v>2602307.299575746</v>
+      </c>
+      <c r="I183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0.0004734643909925757</v>
+      </c>
+      <c r="E184">
+        <v>3061537.999621228</v>
+      </c>
+      <c r="F184">
+        <v>765384.4999053071</v>
+      </c>
+      <c r="G184">
+        <v>7653845</v>
+      </c>
+      <c r="H184">
+        <v>2602307.299630417</v>
+      </c>
+      <c r="I184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0.0004124509385450789</v>
+      </c>
+      <c r="E185">
+        <v>3061537.999670039</v>
+      </c>
+      <c r="F185">
+        <v>765384.4999175097</v>
+      </c>
+      <c r="G185">
+        <v>7653845</v>
+      </c>
+      <c r="H185">
+        <v>2602307.299678044</v>
+      </c>
+      <c r="I185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0.0003593000444026718</v>
+      </c>
+      <c r="E186">
+        <v>3061537.99971256</v>
+      </c>
+      <c r="F186">
+        <v>765384.49992814</v>
+      </c>
+      <c r="G186">
+        <v>7653845</v>
+      </c>
+      <c r="H186">
+        <v>2602307.299719533</v>
+      </c>
+      <c r="I186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0.0003129984922889254</v>
+      </c>
+      <c r="E187">
+        <v>3061537.999749601</v>
+      </c>
+      <c r="F187">
+        <v>765384.4999374003</v>
+      </c>
+      <c r="G187">
+        <v>7653845</v>
+      </c>
+      <c r="H187">
+        <v>2602307.299755676</v>
+      </c>
+      <c r="I187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0.0002726636350351978</v>
+      </c>
+      <c r="E188">
+        <v>3061537.999781869</v>
+      </c>
+      <c r="F188">
+        <v>765384.4999454672</v>
+      </c>
+      <c r="G188">
+        <v>7653845</v>
+      </c>
+      <c r="H188">
+        <v>2602307.299787161</v>
+      </c>
+      <c r="I188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0.0002375265686646826</v>
+      </c>
+      <c r="E189">
+        <v>3061537.999809979</v>
+      </c>
+      <c r="F189">
+        <v>765384.4999524947</v>
+      </c>
+      <c r="G189">
+        <v>7653845</v>
+      </c>
+      <c r="H189">
+        <v>2602307.299814588</v>
+      </c>
+      <c r="I189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0.0002069174747645947</v>
+      </c>
+      <c r="E190">
+        <v>3061537.999834466</v>
+      </c>
+      <c r="F190">
+        <v>765384.4999586164</v>
+      </c>
+      <c r="G190">
+        <v>7653845</v>
+      </c>
+      <c r="H190">
+        <v>2602307.299838482</v>
+      </c>
+      <c r="I190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0.0001802528517279201</v>
+      </c>
+      <c r="E191">
+        <v>3061537.999855797</v>
+      </c>
+      <c r="F191">
+        <v>765384.4999639493</v>
+      </c>
+      <c r="G191">
+        <v>7653845</v>
+      </c>
+      <c r="H191">
+        <v>2602307.299859296</v>
+      </c>
+      <c r="I191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0.0001570243914537036</v>
+      </c>
+      <c r="E192">
+        <v>3061537.999874381</v>
+      </c>
+      <c r="F192">
+        <v>765384.4999685952</v>
+      </c>
+      <c r="G192">
+        <v>7653845</v>
+      </c>
+      <c r="H192">
+        <v>2602307.299877428</v>
+      </c>
+      <c r="I192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0.000136789289462247</v>
+      </c>
+      <c r="E193">
+        <v>3061537.999890569</v>
+      </c>
+      <c r="F193">
+        <v>765384.4999726422</v>
+      </c>
+      <c r="G193">
+        <v>7653845</v>
+      </c>
+      <c r="H193">
+        <v>2602307.299893224</v>
+      </c>
+      <c r="I193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0.0001191618037068028</v>
+      </c>
+      <c r="E194">
+        <v>3061537.999904671</v>
+      </c>
+      <c r="F194">
+        <v>765384.4999761677</v>
+      </c>
+      <c r="G194">
+        <v>7653845</v>
+      </c>
+      <c r="H194">
+        <v>2602307.299906984</v>
+      </c>
+      <c r="I194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0.0001038059011672663</v>
+      </c>
+      <c r="E195">
+        <v>3061537.999916955</v>
+      </c>
+      <c r="F195">
+        <v>765384.4999792388</v>
+      </c>
+      <c r="G195">
+        <v>7653845</v>
+      </c>
+      <c r="H195">
+        <v>2602307.29991897</v>
+      </c>
+      <c r="I195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>9.042885204777325E-05</v>
+      </c>
+      <c r="E196">
+        <v>3061537.999927657</v>
+      </c>
+      <c r="F196">
+        <v>765384.4999819143</v>
+      </c>
+      <c r="G196">
+        <v>7653845</v>
+      </c>
+      <c r="H196">
+        <v>2602307.299929412</v>
+      </c>
+      <c r="I196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>7.877564946429731E-05</v>
+      </c>
+      <c r="E197">
+        <v>3061537.99993698</v>
+      </c>
+      <c r="F197">
+        <v>765384.4999842449</v>
+      </c>
+      <c r="G197">
+        <v>7653845</v>
+      </c>
+      <c r="H197">
+        <v>2602307.299938509</v>
+      </c>
+      <c r="I197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>6.862414824467138E-05</v>
+      </c>
+      <c r="E198">
+        <v>3061537.9999451</v>
+      </c>
+      <c r="F198">
+        <v>765384.4999862751</v>
+      </c>
+      <c r="G198">
+        <v>7653845</v>
+      </c>
+      <c r="H198">
+        <v>2602307.299946433</v>
+      </c>
+      <c r="I198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>5.978083017190445E-05</v>
+      </c>
+      <c r="E199">
+        <v>3061537.999952176</v>
+      </c>
+      <c r="F199">
+        <v>765384.4999880439</v>
+      </c>
+      <c r="G199">
+        <v>7653845</v>
+      </c>
+      <c r="H199">
+        <v>2602307.299953335</v>
+      </c>
+      <c r="I199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>5.207711494356624E-05</v>
+      </c>
+      <c r="E200">
+        <v>3061537.999958338</v>
+      </c>
+      <c r="F200">
+        <v>765384.4999895846</v>
+      </c>
+      <c r="G200">
+        <v>7653845</v>
+      </c>
+      <c r="H200">
+        <v>2602307.299959349</v>
+      </c>
+      <c r="I200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>4.536614652300358E-05</v>
+      </c>
+      <c r="E201">
+        <v>3061537.999963707</v>
+      </c>
+      <c r="F201">
+        <v>765384.4999909268</v>
+      </c>
+      <c r="G201">
+        <v>7653845</v>
+      </c>
+      <c r="H201">
+        <v>2602307.299964587</v>
+      </c>
+      <c r="I201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>3.951999362055465E-05</v>
+      </c>
+      <c r="E202">
+        <v>3061537.999968384</v>
+      </c>
+      <c r="F202">
+        <v>765384.499992096</v>
+      </c>
+      <c r="G202">
+        <v>7653845</v>
+      </c>
+      <c r="H202">
+        <v>2602307.299969151</v>
+      </c>
+      <c r="I202">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
